--- a/Praxis/Energy Cost of Training Human and ChatGPT.xlsx
+++ b/Praxis/Energy Cost of Training Human and ChatGPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\github\GWU\Praxis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23EAC7EF-65DA-4D1A-8C97-215012A60F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7948E-B69F-46DE-8F6B-AA7552BB8D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0C8F7DD-02D5-4294-BBCF-E4F7EFA3AF1A}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Calories per day</t>
-  </si>
-  <si>
-    <t>Per 365 day year</t>
   </si>
   <si>
     <t>Calorie</t>
@@ -67,15 +61,27 @@
   <si>
     <t>Joules</t>
   </si>
+  <si>
+    <t>Kilocalorie</t>
+  </si>
+  <si>
+    <t>Kilocalories per day</t>
+  </si>
+  <si>
+    <t>Kilocaleries per 365 day year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0.0000000000000_);_(* \(#,##0.0000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,16 +120,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode="_(* #,##0.0000000000000_);_(* \(#,##0.0000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -134,6 +275,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CA9B261-DE7F-48B6-93E4-98939325F9E8}" name="Table1" displayName="Table1" ref="O4:T5" totalsRowShown="0">
+  <autoFilter ref="O4:T5" xr:uid="{9CA9B261-DE7F-48B6-93E4-98939325F9E8}"/>
+  <tableColumns count="6">
+    <tableColumn id="6" xr3:uid="{794E22AA-A6D3-48DC-B42E-93A48EBB3D10}" name="Calorie" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{B6D0703B-0309-479D-B7AD-470A2EAA697D}" name="Kilocalorie" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3FA38276-ECBB-406F-AE1C-350E39694278}" name="KWh" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{8E31577B-0941-4B4C-847A-865DB1AFD06D}" name="MWh" dataDxfId="9" dataCellStyle="Comma">
+      <calculatedColumnFormula>Q5/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A213B79A-5F9B-4D35-8D0B-F051B2343614}" name="GWh" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>R5/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B6948AF1-88FB-48E6-86A6-A7E92D3BB070}" name="Joules" dataDxfId="7" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA2A2977-14C4-410A-A077-624D71614F49}" name="Table2" displayName="Table2" ref="G4:L31" totalsRowShown="0" dataDxfId="0" dataCellStyle="Comma">
+  <autoFilter ref="G4:L31" xr:uid="{FA2A2977-14C4-410A-A077-624D71614F49}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{75A72979-2272-4E93-9F80-06013872071A}" name="Age"/>
+    <tableColumn id="2" xr3:uid="{E2718FDA-DE98-4A76-AABF-F6E1C66A4D47}" name="Kilocalories per day" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{58708D51-C4F6-451F-AC51-174F63D83C82}" name="Kilocaleries per 365 day year" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{F12BBD33-0376-4E33-B962-4BA87826151A}" name="Joules" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{24497C41-5965-4C59-B9BA-48F6453AB53D}" name="KWh" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{C022CB4C-B07D-4985-B303-BEC7FA910321}" name="GWh" dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,59 +628,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3C237-1625-4E81-B488-0F541A83EAF5}">
-  <dimension ref="G4:S28"/>
+  <dimension ref="G4:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G4" sqref="G4:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="R4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="7:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>0</v>
       </c>
@@ -517,36 +700,39 @@
         <v>365000</v>
       </c>
       <c r="J5" s="1">
+        <f>I5*$T$5</f>
+        <v>1527160000</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K30" si="0">I5*$Q$5</f>
+        <v>424.21030000000002</v>
+      </c>
+      <c r="L5" s="2">
         <f>I5*$S$5</f>
-        <v>1527160000</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*$P$5</f>
-        <v>424.21030000000002</v>
-      </c>
-      <c r="L5" s="2">
-        <f>I5*$R$5</f>
         <v>4.242103E-4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="Q5" s="3">
         <v>1.16222E-3</v>
       </c>
-      <c r="Q5">
-        <f>P5/1000</f>
+      <c r="R5" s="4">
+        <f>Q5/1000</f>
         <v>1.16222E-6</v>
       </c>
-      <c r="R5">
-        <f>Q5/1000</f>
+      <c r="S5" s="5">
+        <f>R5/1000</f>
         <v>1.1622199999999999E-9</v>
       </c>
-      <c r="S5">
+      <c r="T5" s="1">
         <v>4184</v>
       </c>
     </row>
-    <row r="6" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>1</v>
       </c>
@@ -554,23 +740,23 @@
         <v>1400</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I27" si="0">H6*365</f>
+        <f t="shared" ref="I6:I30" si="1">H6*365</f>
         <v>511000</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J27" si="1">I6*$S$5</f>
+        <f t="shared" ref="J6:J30" si="2">I6*$T$5</f>
         <v>2138024000</v>
       </c>
       <c r="K6" s="1">
-        <f>I6*$P$5</f>
+        <f t="shared" si="0"/>
         <v>593.89442000000008</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L6:L27" si="2">I6*$R$5</f>
+        <f t="shared" ref="L6:L30" si="3">I6*$S$5</f>
         <v>5.9389441999999992E-4</v>
       </c>
     </row>
-    <row r="7" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>2</v>
       </c>
@@ -578,23 +764,23 @@
         <v>1400</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>511000</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2138024000</v>
       </c>
       <c r="K7" s="1">
-        <f>I7*$P$5</f>
+        <f t="shared" si="0"/>
         <v>593.89442000000008</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9389441999999992E-4</v>
       </c>
     </row>
-    <row r="8" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>3</v>
       </c>
@@ -602,23 +788,23 @@
         <v>1400</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>511000</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2138024000</v>
       </c>
       <c r="K8" s="1">
-        <f>I8*$P$5</f>
+        <f t="shared" si="0"/>
         <v>593.89442000000008</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9389441999999992E-4</v>
       </c>
     </row>
-    <row r="9" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>4</v>
       </c>
@@ -626,23 +812,23 @@
         <v>2000</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>730000</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3054320000</v>
       </c>
       <c r="K9" s="1">
-        <f>I9*$P$5</f>
+        <f t="shared" si="0"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.484206E-4</v>
       </c>
     </row>
-    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>5</v>
       </c>
@@ -650,23 +836,23 @@
         <v>2000</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>730000</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3054320000</v>
       </c>
       <c r="K10" s="1">
-        <f>I10*$P$5</f>
+        <f t="shared" si="0"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.484206E-4</v>
       </c>
     </row>
-    <row r="11" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>6</v>
       </c>
@@ -674,23 +860,23 @@
         <v>2000</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>730000</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3054320000</v>
       </c>
       <c r="K11" s="1">
-        <f>I11*$P$5</f>
+        <f t="shared" si="0"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.484206E-4</v>
       </c>
     </row>
-    <row r="12" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>7</v>
       </c>
@@ -698,23 +884,23 @@
         <v>2000</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>730000</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3054320000</v>
       </c>
       <c r="K12" s="1">
-        <f>I12*$P$5</f>
+        <f t="shared" si="0"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.484206E-4</v>
       </c>
     </row>
-    <row r="13" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>8</v>
       </c>
@@ -722,23 +908,23 @@
         <v>2000</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>730000</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3054320000</v>
       </c>
       <c r="K13" s="1">
-        <f>I13*$P$5</f>
+        <f t="shared" si="0"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.484206E-4</v>
       </c>
     </row>
-    <row r="14" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>9</v>
       </c>
@@ -746,23 +932,23 @@
         <v>2600</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>949000</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3970616000</v>
       </c>
       <c r="K14" s="1">
-        <f>I14*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1102.94678</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.10294678E-3</v>
       </c>
     </row>
-    <row r="15" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>10</v>
       </c>
@@ -770,23 +956,23 @@
         <v>2600</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>949000</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3970616000</v>
       </c>
       <c r="K15" s="1">
-        <f>I15*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1102.94678</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.10294678E-3</v>
       </c>
     </row>
-    <row r="16" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>11</v>
       </c>
@@ -794,19 +980,19 @@
         <v>2600</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>949000</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3970616000</v>
       </c>
       <c r="K16" s="1">
-        <f>I16*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1102.94678</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.10294678E-3</v>
       </c>
     </row>
@@ -818,19 +1004,19 @@
         <v>2600</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>949000</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3970616000</v>
       </c>
       <c r="K17" s="1">
-        <f>I17*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1102.94678</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.10294678E-3</v>
       </c>
     </row>
@@ -842,19 +1028,19 @@
         <v>2600</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>949000</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3970616000</v>
       </c>
       <c r="K18" s="1">
-        <f>I18*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1102.94678</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.10294678E-3</v>
       </c>
     </row>
@@ -866,19 +1052,19 @@
         <v>3200</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1168000</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4886912000</v>
       </c>
       <c r="K19" s="1">
-        <f>I19*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1357.4729600000001</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3574729599999998E-3</v>
       </c>
     </row>
@@ -890,19 +1076,19 @@
         <v>3200</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1168000</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4886912000</v>
       </c>
       <c r="K20" s="1">
-        <f>I20*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1357.4729600000001</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3574729599999998E-3</v>
       </c>
     </row>
@@ -914,19 +1100,19 @@
         <v>3200</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1168000</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4886912000</v>
       </c>
       <c r="K21" s="1">
-        <f>I21*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1357.4729600000001</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3574729599999998E-3</v>
       </c>
     </row>
@@ -938,19 +1124,19 @@
         <v>3200</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1168000</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4886912000</v>
       </c>
       <c r="K22" s="1">
-        <f>I22*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1357.4729600000001</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3574729599999998E-3</v>
       </c>
     </row>
@@ -962,19 +1148,19 @@
         <v>3200</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1168000</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4886912000</v>
       </c>
       <c r="K23" s="1">
-        <f>I23*$P$5</f>
+        <f t="shared" si="0"/>
         <v>1357.4729600000001</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3574729599999998E-3</v>
       </c>
     </row>
@@ -986,19 +1172,19 @@
         <v>2000</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I24:I26" si="4">H24*365</f>
         <v>730000</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J24:J26" si="5">I24*$T$5</f>
         <v>3054320000</v>
       </c>
       <c r="K24" s="1">
-        <f>I24*$P$5</f>
+        <f t="shared" ref="K24:K26" si="6">I24*$Q$5</f>
         <v>848.42060000000004</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L24:L26" si="7">I24*$S$5</f>
         <v>8.484206E-4</v>
       </c>
     </row>
@@ -1010,19 +1196,19 @@
         <v>2000</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>730000</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3054320000</v>
       </c>
       <c r="K25" s="1">
-        <f>I25*$P$5</f>
+        <f t="shared" si="6"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.484206E-4</v>
       </c>
     </row>
@@ -1034,19 +1220,19 @@
         <v>2000</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>730000</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3054320000</v>
       </c>
       <c r="K26" s="1">
-        <f>I26*$P$5</f>
+        <f t="shared" si="6"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.484206E-4</v>
       </c>
     </row>
@@ -1058,47 +1244,123 @@
         <v>2000</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>730000</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3054320000</v>
       </c>
       <c r="K27" s="1">
-        <f>I27*$P$5</f>
+        <f t="shared" si="0"/>
         <v>848.42060000000004</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.484206E-4</v>
       </c>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>5</v>
+      <c r="G28">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2000</v>
       </c>
       <c r="I28" s="1">
-        <f>SUM(I5:I27)</f>
-        <v>19053000</v>
+        <f t="shared" si="1"/>
+        <v>730000</v>
       </c>
       <c r="J28" s="1">
-        <f>SUM(J5:J27)</f>
-        <v>79717752000</v>
+        <f t="shared" si="2"/>
+        <v>3054320000</v>
       </c>
       <c r="K28" s="1">
-        <f>SUM(K5:K27)</f>
-        <v>22143.777660000003</v>
+        <f t="shared" si="0"/>
+        <v>848.42060000000004</v>
       </c>
       <c r="L28" s="2">
-        <f>SUM(L5:L27)</f>
-        <v>2.2143777660000002E-2</v>
-      </c>
-      <c r="M28" t="s">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>8.484206E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>730000</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>3054320000</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>848.42060000000004</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="3"/>
+        <v>8.484206E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>730000</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>3054320000</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>848.42060000000004</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="3"/>
+        <v>8.484206E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <f>SUM(I5:I30)</f>
+        <v>21243000</v>
+      </c>
+      <c r="J31" s="1">
+        <f>SUM(J5:J30)</f>
+        <v>88880712000</v>
+      </c>
+      <c r="K31" s="1">
+        <f>SUM(K5:K30)</f>
+        <v>24689.039460000007</v>
+      </c>
+      <c r="L31" s="2">
+        <f>SUM(L5:L30)</f>
+        <v>2.4689039460000003E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>